--- a/查询表.xlsx
+++ b/查询表.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vhtmf\Documents\MATLAB\Transfer-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532DE093-1C3F-4D89-964D-1C3E96EDF728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192A1AAA-5E15-43BC-B8D3-98ABE1A55A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fig1B" sheetId="1" r:id="rId1"/>
+    <sheet name="Fig4D" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="18">
   <si>
     <t>GroupName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +73,30 @@
   </si>
   <si>
     <t>Learned</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learned_task_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transfer_task_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Final_task_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Final_task_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learned4,Transfer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Final</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -402,7 +427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -539,4 +564,151 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955D9409-37EA-42B8-AF2F-C837F3F708A4}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="20.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/查询表.xlsx
+++ b/查询表.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vhtmf\Documents\MATLAB\Transfer-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192A1AAA-5E15-43BC-B8D3-98ABE1A55A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9218897-8ABE-4F71-AE0A-0777E535D2C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Fig1B" sheetId="1" r:id="rId1"/>
-    <sheet name="Fig4D" sheetId="2" r:id="rId2"/>
+    <sheet name="统一模型" sheetId="3" r:id="rId1"/>
+    <sheet name="Fig1B" sheetId="1" r:id="rId2"/>
+    <sheet name="Fig1E" sheetId="4" r:id="rId3"/>
+    <sheet name="Fig4D" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="42">
   <si>
     <t>GroupName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,6 +99,101 @@
   </si>
   <si>
     <t>Final</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Behavior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Naïve_cue1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LightOnly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Naïve_cue1_water_hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Naïve_cue1_water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Naïve_cue1_water_miss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learned4_cue1_water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Final_cue1_water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transfer_cue2_water_hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transfer_cue2_water_miss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Final_cue2_water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AudioOnly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transfer_cue2_water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learned_0h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learned1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learned_12h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learned2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learned_36h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learned4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Naïve_cue_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Naïve_task_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZLayer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOp2/3,MOp5</t>
+  </si>
+  <si>
+    <t>MOp2/3,MOp5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -424,11 +521,456 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9E5BDC-858C-40A4-AAAC-690BD12079BE}">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.625" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D5" sqref="C1:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -566,11 +1108,185 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA767627-F2D8-4EE6-BF0E-F5992883EE39}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="20.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955D9409-37EA-42B8-AF2F-C837F3F708A4}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>

--- a/查询表.xlsx
+++ b/查询表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vhtmf\Documents\MATLAB\Transfer-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9218897-8ABE-4F71-AE0A-0777E535D2C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5B4FAA-B3DE-485E-864A-2CA039F20E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="统一模型" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="43">
   <si>
     <t>GroupName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,10 +178,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Naïve_cue_A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Naïve_task_A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -194,6 +190,14 @@
   </si>
   <si>
     <t>MOp2/3,MOp5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transfer_task_B_hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transfer_task_B_miss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -524,7 +528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9E5BDC-858C-40A4-AAAC-690BD12079BE}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -1110,10 +1114,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA767627-F2D8-4EE6-BF0E-F5992883EE39}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1121,9 +1125,10 @@
     <col min="1" max="2" width="20.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.625" customWidth="1"/>
     <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1137,10 +1142,13 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -1151,32 +1159,32 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
@@ -1185,15 +1193,18 @@
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>10</v>
@@ -1205,10 +1216,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
@@ -1219,18 +1233,18 @@
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>7</v>
@@ -1239,12 +1253,12 @@
         <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
@@ -1253,15 +1267,18 @@
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
@@ -1273,12 +1290,16 @@
         <v>6</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/查询表.xlsx
+++ b/查询表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vhtmf\Documents\MATLAB\Transfer-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5B4FAA-B3DE-485E-864A-2CA039F20E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF21C0A-2263-4609-BD24-4F0E1F705433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="统一模型" sheetId="3" r:id="rId1"/>
@@ -528,7 +528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9E5BDC-858C-40A4-AAAC-690BD12079BE}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -1116,7 +1116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA767627-F2D8-4EE6-BF0E-F5992883EE39}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>

--- a/查询表.xlsx
+++ b/查询表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vhtmf\Documents\MATLAB\Transfer-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF21C0A-2263-4609-BD24-4F0E1F705433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1997BD2F-A682-421C-BF3F-E596D463F9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="50">
   <si>
     <t>GroupName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,58 +106,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Naïve_cue1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LightOnly</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Naïve_cue1_water_hit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Naïve_cue1_water</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Naïve_cue1_water_miss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Learned4_cue1_water</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Final_cue1_water</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Transfer_cue2_water_hit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Transfer_cue2_water_miss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Final_cue2_water</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AudioOnly</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Transfer_cue2_water</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Learned_0h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Learned1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -198,6 +154,78 @@
   </si>
   <si>
     <t>Transfer_task_B_miss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Naïve_light_only</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Naïve_light_water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Naïve_light_water_hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learned_light_water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Naïve_light_water_miss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transfer_audio_water_hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transfer_audio_water_miss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Final_audio_water_asB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transfer_audio_water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Final_light_water_asA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Naïve_audio_only</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Naïve_audio_water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Naïve_audio_water_hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Naïve_audio_water_miss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learned_audio_water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learned_audio_water_0h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learned_audio_water_12h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learned_audio_water_36h</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -526,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9E5BDC-858C-40A4-AAAC-690BD12079BE}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -558,13 +586,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
@@ -573,7 +601,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -584,13 +612,10 @@
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -601,11 +626,13 @@
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
@@ -622,7 +649,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>16</v>
@@ -637,10 +664,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
@@ -648,48 +675,41 @@
       <c r="D7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
@@ -697,123 +717,122 @@
       <c r="D10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
+      <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>6</v>
@@ -822,15 +841,15 @@
         <v>7</v>
       </c>
       <c r="E18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>6</v>
@@ -838,16 +857,14 @@
       <c r="D19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
+      <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>6</v>
@@ -855,14 +872,13 @@
       <c r="D20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>6</v>
@@ -870,59 +886,58 @@
       <c r="D21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="1"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="1"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>8</v>
@@ -930,29 +945,30 @@
       <c r="D25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="1"/>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>8</v>
@@ -961,6 +977,27 @@
         <v>7</v>
       </c>
       <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1142,7 +1179,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>18</v>
@@ -1150,7 +1187,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -1162,7 +1199,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1179,12 +1216,12 @@
         <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
@@ -1196,7 +1233,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -1204,7 +1241,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>10</v>
@@ -1216,7 +1253,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -1224,7 +1261,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>2</v>
@@ -1236,7 +1273,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1253,12 +1290,12 @@
         <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
@@ -1270,7 +1307,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -1278,7 +1315,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
@@ -1290,7 +1327,7 @@
         <v>6</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>

--- a/查询表.xlsx
+++ b/查询表.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vhtmf\Documents\MATLAB\Transfer-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1997BD2F-A682-421C-BF3F-E596D463F9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E18F5E8-67C2-42CA-B548-C6FA60ADB4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="统一模型" sheetId="3" r:id="rId1"/>
-    <sheet name="Fig1B" sheetId="1" r:id="rId2"/>
-    <sheet name="Fig1E" sheetId="4" r:id="rId3"/>
-    <sheet name="Fig4D" sheetId="2" r:id="rId4"/>
+    <sheet name="光声迁移" sheetId="5" r:id="rId2"/>
+    <sheet name="Fig1B" sheetId="1" r:id="rId3"/>
+    <sheet name="Fig1E" sheetId="4" r:id="rId4"/>
+    <sheet name="Fig4D" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="52">
   <si>
     <t>GroupName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -221,11 +222,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Learned_audio_water_12h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Learned_audio_water_36h</t>
+    <t>Learned_light_water_0h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learned_light_water_12h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learned_light_water_36h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task_B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -556,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9E5BDC-858C-40A4-AAAC-690BD12079BE}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="A1:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -664,7 +673,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>21</v>
@@ -678,7 +687,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>23</v>
@@ -692,7 +701,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>25</v>
@@ -1007,6 +1016,140 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BB5AC8-8FCA-49B8-AF30-96F469FDC022}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -1149,7 +1292,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA767627-F2D8-4EE6-BF0E-F5992883EE39}">
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -1340,7 +1483,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955D9409-37EA-42B8-AF2F-C837F3F708A4}">
   <dimension ref="A1:D9"/>
   <sheetViews>

--- a/查询表.xlsx
+++ b/查询表.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vhtmf\Documents\MATLAB\Transfer-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E18F5E8-67C2-42CA-B548-C6FA60ADB4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A4BD6C-3BC9-4586-9F01-2C7783983A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="统一模型" sheetId="3" r:id="rId1"/>
     <sheet name="光声迁移" sheetId="5" r:id="rId2"/>
-    <sheet name="Fig1B" sheetId="1" r:id="rId3"/>
-    <sheet name="Fig1E" sheetId="4" r:id="rId4"/>
-    <sheet name="Fig4D" sheetId="2" r:id="rId5"/>
+    <sheet name="声光迁移" sheetId="6" r:id="rId3"/>
+    <sheet name="声光迁移RSPd" sheetId="8" r:id="rId4"/>
+    <sheet name="Fig1B" sheetId="1" r:id="rId5"/>
+    <sheet name="Fig1E" sheetId="4" r:id="rId6"/>
+    <sheet name="Fig4D" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="53">
   <si>
     <t>GroupName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,6 +237,10 @@
   </si>
   <si>
     <t>Task_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSPd2/3,RSPd5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1019,14 +1025,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BB5AC8-8FCA-49B8-AF30-96F469FDC022}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="20.625" customWidth="1"/>
     <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -1042,7 +1049,9 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1057,7 +1066,9 @@
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -1072,6 +1083,9 @@
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -1086,7 +1100,9 @@
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
@@ -1150,11 +1166,191 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0FF2BA3-B618-4C5A-8B44-5AD472C293A6}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="A1:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E741F2-60D1-4FC1-A219-2E32E5A5D7E0}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="C1:D5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1292,7 +1488,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA767627-F2D8-4EE6-BF0E-F5992883EE39}">
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -1483,7 +1679,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955D9409-37EA-42B8-AF2F-C837F3F708A4}">
   <dimension ref="A1:D9"/>
   <sheetViews>

--- a/查询表.xlsx
+++ b/查询表.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vhtmf\Documents\MATLAB\Transfer-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A4BD6C-3BC9-4586-9F01-2C7783983A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FADD8A0A-2E9A-414D-A0AE-F423EDD08B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="统一模型" sheetId="3" r:id="rId1"/>
-    <sheet name="光声迁移" sheetId="5" r:id="rId2"/>
-    <sheet name="声光迁移" sheetId="6" r:id="rId3"/>
-    <sheet name="声光迁移RSPd" sheetId="8" r:id="rId4"/>
-    <sheet name="Fig1B" sheetId="1" r:id="rId5"/>
-    <sheet name="Fig1E" sheetId="4" r:id="rId6"/>
-    <sheet name="Fig4D" sheetId="2" r:id="rId7"/>
+    <sheet name="统一PCA" sheetId="3" r:id="rId1"/>
+    <sheet name="Fig1J" sheetId="10" r:id="rId2"/>
+    <sheet name="光声迁移" sheetId="5" r:id="rId3"/>
+    <sheet name="声光迁移" sheetId="6" r:id="rId4"/>
+    <sheet name="声光迁移RSPd" sheetId="8" r:id="rId5"/>
+    <sheet name="NaiveHitMiss" sheetId="9" r:id="rId6"/>
+    <sheet name="Fig1B" sheetId="1" r:id="rId7"/>
+    <sheet name="Fig1E" sheetId="4" r:id="rId8"/>
+    <sheet name="Fig4D" sheetId="2" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="38">
   <si>
     <t>GroupName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,26 +119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Learned1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Learned_12h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Learned2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Learned_36h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Learned4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Naïve_task_A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -188,51 +170,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Final_audio_water_asB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Transfer_audio_water</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Final_light_water_asA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Naïve_audio_only</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Naïve_audio_water</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Naïve_audio_water_hit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Naïve_audio_water_miss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Learned_audio_water</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Learned_audio_water_0h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Learned_light_water_0h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Learned_light_water_12h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Learned_light_water_36h</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -569,20 +511,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9E5BDC-858C-40A4-AAAC-690BD12079BE}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="A1:E14"/>
+      <selection activeCell="A2" sqref="A2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.625" customWidth="1"/>
-    <col min="2" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="30.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="20.625" style="1" customWidth="1"/>
+    <col min="6" max="8" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -596,423 +541,85 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="B5" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1022,11 +629,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BB5AC8-8FCA-49B8-AF30-96F469FDC022}">
-  <dimension ref="A1:E14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A2C116D-A413-49EC-BAB2-3364BC68CB97}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1050,114 +657,93 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1166,6 +752,150 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BB5AC8-8FCA-49B8-AF30-96F469FDC022}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="A1:E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0FF2BA3-B618-4C5A-8B44-5AD472C293A6}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -1194,12 +924,12 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -1211,7 +941,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1228,12 +958,12 @@
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
@@ -1245,7 +975,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1255,11 +985,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E741F2-60D1-4FC1-A219-2E32E5A5D7E0}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
@@ -1284,12 +1014,12 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -1301,7 +1031,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1318,12 +1048,12 @@
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
@@ -1335,7 +1065,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1345,7 +1075,105 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{079BD42A-5F01-4EE5-A8A3-55C6AAB76233}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="20.625" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -1488,7 +1316,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA767627-F2D8-4EE6-BF0E-F5992883EE39}">
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -1518,7 +1346,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>18</v>
@@ -1526,7 +1354,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -1538,7 +1366,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1555,12 +1383,12 @@
         <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
@@ -1572,7 +1400,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -1580,7 +1408,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>10</v>
@@ -1592,7 +1420,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -1600,7 +1428,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>2</v>
@@ -1612,7 +1440,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1629,12 +1457,12 @@
         <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
@@ -1646,7 +1474,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -1654,7 +1482,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
@@ -1666,7 +1494,7 @@
         <v>6</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -1679,7 +1507,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955D9409-37EA-42B8-AF2F-C837F3F708A4}">
   <dimension ref="A1:D9"/>
   <sheetViews>

--- a/查询表.xlsx
+++ b/查询表.xlsx
@@ -8,20 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vhtmf\Documents\MATLAB\Transfer-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FADD8A0A-2E9A-414D-A0AE-F423EDD08B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B53816-7446-496C-92F5-2CB7EE182C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="统一PCA" sheetId="3" r:id="rId1"/>
-    <sheet name="Fig1J" sheetId="10" r:id="rId2"/>
-    <sheet name="光声迁移" sheetId="5" r:id="rId3"/>
-    <sheet name="声光迁移" sheetId="6" r:id="rId4"/>
-    <sheet name="声光迁移RSPd" sheetId="8" r:id="rId5"/>
-    <sheet name="NaiveHitMiss" sheetId="9" r:id="rId6"/>
-    <sheet name="Fig1B" sheetId="1" r:id="rId7"/>
-    <sheet name="Fig1E" sheetId="4" r:id="rId8"/>
-    <sheet name="Fig4D" sheetId="2" r:id="rId9"/>
+    <sheet name="TemplateHitMiss" sheetId="11" r:id="rId2"/>
+    <sheet name="HitMissPie" sheetId="14" r:id="rId3"/>
+    <sheet name="HitMissLinearFitting" sheetId="16" r:id="rId4"/>
+    <sheet name="Fig1J" sheetId="10" r:id="rId5"/>
+    <sheet name="光声迁移" sheetId="5" r:id="rId6"/>
+    <sheet name="声光迁移" sheetId="6" r:id="rId7"/>
+    <sheet name="声光HitMiss" sheetId="13" r:id="rId8"/>
+    <sheet name="声光迁移RSPd" sheetId="8" r:id="rId9"/>
+    <sheet name="NaiveHitMiss" sheetId="9" r:id="rId10"/>
+    <sheet name="Fig1B" sheetId="1" r:id="rId11"/>
+    <sheet name="Fig1E" sheetId="4" r:id="rId12"/>
+    <sheet name="Fig4D" sheetId="2" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="47">
   <si>
     <t>GroupName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,11 +182,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Learned_audio_water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Task_B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>RSPd2/3,RSPd5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transfer_light_water_hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transfer_light_water_miss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transfer_hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transfer_miss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Light_water_hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Light_water_miss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Audio_water_hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Audio_water_miss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -511,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9E5BDC-858C-40A4-AAAC-690BD12079BE}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F5"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -566,7 +606,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>16</v>
@@ -583,7 +623,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
@@ -603,7 +643,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
@@ -618,6 +658,63 @@
         <v>24</v>
       </c>
       <c r="F5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="1">
         <v>0</v>
       </c>
     </row>
@@ -628,454 +725,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A2C116D-A413-49EC-BAB2-3364BC68CB97}">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A2:A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BB5AC8-8FCA-49B8-AF30-96F469FDC022}">
-  <dimension ref="A1:E14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="A1:E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0FF2BA3-B618-4C5A-8B44-5AD472C293A6}">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="A1:D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E741F2-60D1-4FC1-A219-2E32E5A5D7E0}">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{079BD42A-5F01-4EE5-A8A3-55C6AAB76233}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -1173,7 +823,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -1316,7 +966,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA767627-F2D8-4EE6-BF0E-F5992883EE39}">
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -1507,7 +1157,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955D9409-37EA-42B8-AF2F-C837F3F708A4}">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -1652,4 +1302,858 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C64A780-B325-4786-9305-F40760822895}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="A1:F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="20.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50F1590B-8481-4D31-AE83-A1DF5D019A74}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.625" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3020E8-AD0F-478C-8862-BFFD2C6A7D00}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.625" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A2C116D-A413-49EC-BAB2-3364BC68CB97}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A2:A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BB5AC8-8FCA-49B8-AF30-96F469FDC022}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="A1:E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0FF2BA3-B618-4C5A-8B44-5AD472C293A6}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="A1:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DC8F313-9CDA-4DB5-9763-AA6005B84C2F}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="20.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E741F2-60D1-4FC1-A219-2E32E5A5D7E0}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/查询表.xlsx
+++ b/查询表.xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vhtmf\Documents\MATLAB\Transfer-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B53816-7446-496C-92F5-2CB7EE182C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42DF730-C1B2-4327-B3EF-DE0FC81B209D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="统一PCA" sheetId="3" r:id="rId1"/>
-    <sheet name="TemplateHitMiss" sheetId="11" r:id="rId2"/>
-    <sheet name="HitMissPie" sheetId="14" r:id="rId3"/>
-    <sheet name="HitMissLinearFitting" sheetId="16" r:id="rId4"/>
-    <sheet name="Fig1J" sheetId="10" r:id="rId5"/>
-    <sheet name="光声迁移" sheetId="5" r:id="rId6"/>
-    <sheet name="声光迁移" sheetId="6" r:id="rId7"/>
-    <sheet name="声光HitMiss" sheetId="13" r:id="rId8"/>
-    <sheet name="声光迁移RSPd" sheetId="8" r:id="rId9"/>
-    <sheet name="NaiveHitMiss" sheetId="9" r:id="rId10"/>
-    <sheet name="Fig1B" sheetId="1" r:id="rId11"/>
-    <sheet name="Fig1E" sheetId="4" r:id="rId12"/>
-    <sheet name="Fig4D" sheetId="2" r:id="rId13"/>
+    <sheet name="声光Naive" sheetId="17" r:id="rId2"/>
+    <sheet name="TemplateHitMiss" sheetId="11" r:id="rId3"/>
+    <sheet name="HitMissPie" sheetId="14" r:id="rId4"/>
+    <sheet name="HitMissLinearFitting" sheetId="16" r:id="rId5"/>
+    <sheet name="Fig1J" sheetId="10" r:id="rId6"/>
+    <sheet name="光声迁移" sheetId="5" r:id="rId7"/>
+    <sheet name="声光迁移" sheetId="6" r:id="rId8"/>
+    <sheet name="声光HitMiss" sheetId="13" r:id="rId9"/>
+    <sheet name="声光迁移RSPd" sheetId="8" r:id="rId10"/>
+    <sheet name="NaiveHitMiss" sheetId="9" r:id="rId11"/>
+    <sheet name="Fig1B" sheetId="1" r:id="rId12"/>
+    <sheet name="Fig1E" sheetId="4" r:id="rId13"/>
+    <sheet name="Fig4D" sheetId="2" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="48">
   <si>
     <t>GroupName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -179,6 +180,10 @@
   </si>
   <si>
     <t>Naïve_audio_only</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Naïve_audio_water</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -623,7 +628,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
@@ -643,7 +648,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
@@ -680,7 +685,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>9</v>
@@ -700,7 +705,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>9</v>
@@ -726,6 +731,96 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E741F2-60D1-4FC1-A219-2E32E5A5D7E0}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{079BD42A-5F01-4EE5-A8A3-55C6AAB76233}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -823,7 +918,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -966,7 +1061,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA767627-F2D8-4EE6-BF0E-F5992883EE39}">
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -1157,7 +1252,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955D9409-37EA-42B8-AF2F-C837F3F708A4}">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -1305,7 +1400,764 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7925DD38-417B-4DC2-8355-2344589CB906}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C64A780-B325-4786-9305-F40760822895}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="20.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50F1590B-8481-4D31-AE83-A1DF5D019A74}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.625" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3020E8-AD0F-478C-8862-BFFD2C6A7D00}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.625" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A2C116D-A413-49EC-BAB2-3364BC68CB97}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A2:A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BB5AC8-8FCA-49B8-AF30-96F469FDC022}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="A1:E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0FF2BA3-B618-4C5A-8B44-5AD472C293A6}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="A1:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DC8F313-9CDA-4DB5-9763-AA6005B84C2F}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1344,16 +2196,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>24</v>
@@ -1361,16 +2213,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>24</v>
@@ -1381,226 +2233,21 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50F1590B-8481-4D31-AE83-A1DF5D019A74}">
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="30.625" customWidth="1"/>
-    <col min="2" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3020E8-AD0F-478C-8862-BFFD2C6A7D00}">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="30.625" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1608,552 +2255,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A2C116D-A413-49EC-BAB2-3364BC68CB97}">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A2:A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BB5AC8-8FCA-49B8-AF30-96F469FDC022}">
-  <dimension ref="A1:E14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="A1:E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0FF2BA3-B618-4C5A-8B44-5AD472C293A6}">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="A1:D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DC8F313-9CDA-4DB5-9763-AA6005B84C2F}">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="30.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="20.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E741F2-60D1-4FC1-A219-2E32E5A5D7E0}">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/查询表.xlsx
+++ b/查询表.xlsx
@@ -8,25 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vhtmf\Documents\MATLAB\Transfer-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42DF730-C1B2-4327-B3EF-DE0FC81B209D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D2ACDF-2B84-4DAB-B488-D86CC9DBD47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="统一PCA" sheetId="3" r:id="rId1"/>
-    <sheet name="声光Naive" sheetId="17" r:id="rId2"/>
-    <sheet name="TemplateHitMiss" sheetId="11" r:id="rId3"/>
-    <sheet name="HitMissPie" sheetId="14" r:id="rId4"/>
-    <sheet name="HitMissLinearFitting" sheetId="16" r:id="rId5"/>
-    <sheet name="Fig1J" sheetId="10" r:id="rId6"/>
-    <sheet name="光声迁移" sheetId="5" r:id="rId7"/>
-    <sheet name="声光迁移" sheetId="6" r:id="rId8"/>
-    <sheet name="声光HitMiss" sheetId="13" r:id="rId9"/>
-    <sheet name="声光迁移RSPd" sheetId="8" r:id="rId10"/>
-    <sheet name="NaiveHitMiss" sheetId="9" r:id="rId11"/>
-    <sheet name="Fig1B" sheetId="1" r:id="rId12"/>
-    <sheet name="Fig1E" sheetId="4" r:id="rId13"/>
-    <sheet name="Fig4D" sheetId="2" r:id="rId14"/>
+    <sheet name="Fig2C" sheetId="22" r:id="rId1"/>
+    <sheet name="FinalRSPdHeat" sheetId="20" r:id="rId2"/>
+    <sheet name="统一PCA" sheetId="3" r:id="rId3"/>
+    <sheet name="Fig2B" sheetId="18" r:id="rId4"/>
+    <sheet name="声光Naive" sheetId="17" r:id="rId5"/>
+    <sheet name="TemplateHitMiss" sheetId="11" r:id="rId6"/>
+    <sheet name="HitMissPie" sheetId="14" r:id="rId7"/>
+    <sheet name="HitMissLinearFitting" sheetId="16" r:id="rId8"/>
+    <sheet name="Fig1J" sheetId="10" r:id="rId9"/>
+    <sheet name="光声迁移" sheetId="5" r:id="rId10"/>
+    <sheet name="Fig2A" sheetId="6" r:id="rId11"/>
+    <sheet name="声光HitMiss" sheetId="13" r:id="rId12"/>
+    <sheet name="声光迁移RSPd" sheetId="8" r:id="rId13"/>
+    <sheet name="NaiveHitMiss" sheetId="9" r:id="rId14"/>
+    <sheet name="Fig1B" sheetId="1" r:id="rId15"/>
+    <sheet name="Fig1E" sheetId="4" r:id="rId16"/>
+    <sheet name="Fig4D" sheetId="2" r:id="rId17"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="51">
   <si>
     <t>GroupName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -228,6 +231,18 @@
   </si>
   <si>
     <t>Audio_water_miss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Final_light_water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Final_audio_water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transfer_light_water</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -555,11 +570,342 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9E5BDC-858C-40A4-AAAC-690BD12079BE}">
-  <dimension ref="A1:H8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A1AD7D0-4CB7-41B7-82F9-51A88A776C7D}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BB5AC8-8FCA-49B8-AF30-96F469FDC022}">
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E4" sqref="A1:E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0FF2BA3-B618-4C5A-8B44-5AD472C293A6}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DC8F313-9CDA-4DB5-9763-AA6005B84C2F}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="A1:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -569,7 +915,7 @@
     <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
     <col min="5" max="5" width="20.625" style="1" customWidth="1"/>
-    <col min="6" max="8" width="9" style="1"/>
+    <col min="6" max="6" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -594,16 +940,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>24</v>
@@ -611,126 +957,51 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E741F2-60D1-4FC1-A219-2E32E5A5D7E0}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -820,7 +1091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{079BD42A-5F01-4EE5-A8A3-55C6AAB76233}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -918,7 +1189,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -1061,7 +1332,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA767627-F2D8-4EE6-BF0E-F5992883EE39}">
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -1252,7 +1523,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955D9409-37EA-42B8-AF2F-C837F3F708A4}">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -1400,10 +1671,395 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D891B7-431D-440C-BC1B-3F6A3C6A425D}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9E5BDC-858C-40A4-AAAC-690BD12079BE}">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="20.625" style="1" customWidth="1"/>
+    <col min="6" max="8" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1069E3-F224-4C09-B11B-7C6B6BFBA34F}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7925DD38-417B-4DC2-8355-2344589CB906}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1493,7 +2149,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C64A780-B325-4786-9305-F40760822895}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -1595,7 +2251,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50F1590B-8481-4D31-AE83-A1DF5D019A74}">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -1718,7 +2374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3020E8-AD0F-478C-8862-BFFD2C6A7D00}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -1799,7 +2455,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A2C116D-A413-49EC-BAB2-3364BC68CB97}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -1920,339 +2576,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BB5AC8-8FCA-49B8-AF30-96F469FDC022}">
-  <dimension ref="A1:E14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="A1:E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0FF2BA3-B618-4C5A-8B44-5AD472C293A6}">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="A1:D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DC8F313-9CDA-4DB5-9763-AA6005B84C2F}">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="A1:F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="30.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="20.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/查询表.xlsx
+++ b/查询表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vhtmf\Documents\MATLAB\Transfer-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D2ACDF-2B84-4DAB-B488-D86CC9DBD47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD613DD-C4EC-47E4-8DF7-446E5CE32485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fig2C" sheetId="22" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="51">
   <si>
     <t>GroupName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -573,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A1AD7D0-4CB7-41B7-82F9-51A88A776C7D}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1768,10 +1768,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9E5BDC-858C-40A4-AAAC-690BD12079BE}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1840,7 +1840,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
@@ -1854,13 +1854,10 @@
       <c r="E4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
@@ -1875,15 +1872,15 @@
         <v>24</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
@@ -1893,20 +1890,23 @@
       </c>
       <c r="E6" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>24</v>
@@ -1914,27 +1914,24 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
@@ -1949,6 +1946,26 @@
         <v>23</v>
       </c>
       <c r="F9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="1">
         <v>0</v>
       </c>
     </row>

--- a/查询表.xlsx
+++ b/查询表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vhtmf\Documents\MATLAB\Transfer-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD613DD-C4EC-47E4-8DF7-446E5CE32485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831F8150-92A5-422F-84F6-0BE250A9C026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fig2C" sheetId="22" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="HitMissPie" sheetId="14" r:id="rId7"/>
     <sheet name="HitMissLinearFitting" sheetId="16" r:id="rId8"/>
     <sheet name="Fig1J" sheetId="10" r:id="rId9"/>
-    <sheet name="光声迁移" sheetId="5" r:id="rId10"/>
+    <sheet name="Fig1G" sheetId="5" r:id="rId10"/>
     <sheet name="Fig2A" sheetId="6" r:id="rId11"/>
     <sheet name="声光HitMiss" sheetId="13" r:id="rId12"/>
     <sheet name="声光迁移RSPd" sheetId="8" r:id="rId13"/>
@@ -680,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BB5AC8-8FCA-49B8-AF30-96F469FDC022}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="A1:E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -710,7 +710,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -727,7 +727,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>16</v>
@@ -744,7 +744,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
@@ -817,6 +817,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1770,7 +1771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9E5BDC-858C-40A4-AAAC-690BD12079BE}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>

--- a/查询表.xlsx
+++ b/查询表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vhtmf\Documents\MATLAB\Transfer-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831F8150-92A5-422F-84F6-0BE250A9C026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE66ABBE-8D5B-4803-97AA-F6626A6B2FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fig2C" sheetId="22" r:id="rId1"/>
@@ -26,10 +26,11 @@
     <sheet name="Fig2A" sheetId="6" r:id="rId11"/>
     <sheet name="声光HitMiss" sheetId="13" r:id="rId12"/>
     <sheet name="声光迁移RSPd" sheetId="8" r:id="rId13"/>
-    <sheet name="NaiveHitMiss" sheetId="9" r:id="rId14"/>
-    <sheet name="Fig1B" sheetId="1" r:id="rId15"/>
-    <sheet name="Fig1E" sheetId="4" r:id="rId16"/>
-    <sheet name="Fig4D" sheetId="2" r:id="rId17"/>
+    <sheet name="OriginalKeepTraining" sheetId="24" r:id="rId14"/>
+    <sheet name="NaiveHitMiss" sheetId="9" r:id="rId15"/>
+    <sheet name="Fig1B" sheetId="1" r:id="rId16"/>
+    <sheet name="Fig1E" sheetId="4" r:id="rId17"/>
+    <sheet name="Fig4D" sheetId="2" r:id="rId18"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="57">
   <si>
     <t>GroupName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -243,6 +244,30 @@
   </si>
   <si>
     <t>Transfer_light_water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learned_light_water_0h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learned1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learned_light_water_12h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learned_light_water_36h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learned2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learned4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -680,7 +705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BB5AC8-8FCA-49B8-AF30-96F469FDC022}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1093,6 +1118,131 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B968D520-F767-413F-A2F7-B05602FB43C8}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="20.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="20.625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{079BD42A-5F01-4EE5-A8A3-55C6AAB76233}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -1190,7 +1340,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -1333,7 +1483,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA767627-F2D8-4EE6-BF0E-F5992883EE39}">
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -1524,7 +1674,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955D9409-37EA-42B8-AF2F-C837F3F708A4}">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -1676,7 +1826,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E4" sqref="A1:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/查询表.xlsx
+++ b/查询表.xlsx
@@ -8,29 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vhtmf\Documents\MATLAB\Transfer-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE66ABBE-8D5B-4803-97AA-F6626A6B2FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6FE9FD-F16E-4F5E-8412-1D2F2492EEAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Fig2C" sheetId="22" r:id="rId1"/>
-    <sheet name="FinalRSPdHeat" sheetId="20" r:id="rId2"/>
-    <sheet name="统一PCA" sheetId="3" r:id="rId3"/>
-    <sheet name="Fig2B" sheetId="18" r:id="rId4"/>
-    <sheet name="声光Naive" sheetId="17" r:id="rId5"/>
-    <sheet name="TemplateHitMiss" sheetId="11" r:id="rId6"/>
-    <sheet name="HitMissPie" sheetId="14" r:id="rId7"/>
-    <sheet name="HitMissLinearFitting" sheetId="16" r:id="rId8"/>
-    <sheet name="Fig1J" sheetId="10" r:id="rId9"/>
-    <sheet name="Fig1G" sheetId="5" r:id="rId10"/>
-    <sheet name="Fig2A" sheetId="6" r:id="rId11"/>
-    <sheet name="声光HitMiss" sheetId="13" r:id="rId12"/>
-    <sheet name="声光迁移RSPd" sheetId="8" r:id="rId13"/>
-    <sheet name="OriginalKeepTraining" sheetId="24" r:id="rId14"/>
-    <sheet name="NaiveHitMiss" sheetId="9" r:id="rId15"/>
-    <sheet name="Fig1B" sheetId="1" r:id="rId16"/>
-    <sheet name="Fig1E" sheetId="4" r:id="rId17"/>
-    <sheet name="Fig4D" sheetId="2" r:id="rId18"/>
+    <sheet name="TransferLowPerformanceHeatmap" sheetId="26" r:id="rId1"/>
+    <sheet name="Fig2C" sheetId="22" r:id="rId2"/>
+    <sheet name="FinalRSPdHeat" sheetId="20" r:id="rId3"/>
+    <sheet name="统一PCA" sheetId="3" r:id="rId4"/>
+    <sheet name="Fig2B" sheetId="18" r:id="rId5"/>
+    <sheet name="声光Naive" sheetId="17" r:id="rId6"/>
+    <sheet name="TemplateHitMiss" sheetId="11" r:id="rId7"/>
+    <sheet name="HitMissPie" sheetId="14" r:id="rId8"/>
+    <sheet name="HitMissLinearFitting" sheetId="16" r:id="rId9"/>
+    <sheet name="Fig1J" sheetId="10" r:id="rId10"/>
+    <sheet name="Fig1G" sheetId="5" r:id="rId11"/>
+    <sheet name="Fig2A" sheetId="6" r:id="rId12"/>
+    <sheet name="声光HitMiss" sheetId="13" r:id="rId13"/>
+    <sheet name="声光迁移RSPd" sheetId="8" r:id="rId14"/>
+    <sheet name="OriginalKeepTraining" sheetId="24" r:id="rId15"/>
+    <sheet name="NaiveHitMiss" sheetId="9" r:id="rId16"/>
+    <sheet name="Fig1B" sheetId="1" r:id="rId17"/>
+    <sheet name="Fig1E" sheetId="4" r:id="rId18"/>
+    <sheet name="Fig4D" sheetId="2" r:id="rId19"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="57">
   <si>
     <t>GroupName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -595,11 +596,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A1AD7D0-4CB7-41B7-82F9-51A88A776C7D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A66BD7E-1002-4444-9036-E4027F529645}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -702,6 +703,129 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A2C116D-A413-49EC-BAB2-3364BC68CB97}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A2:A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BB5AC8-8FCA-49B8-AF30-96F469FDC022}">
   <dimension ref="A1:E14"/>
   <sheetViews>
@@ -846,7 +970,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0FF2BA3-B618-4C5A-8B44-5AD472C293A6}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -926,7 +1050,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DC8F313-9CDA-4DB5-9763-AA6005B84C2F}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -1027,7 +1151,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E741F2-60D1-4FC1-A219-2E32E5A5D7E0}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -1117,11 +1241,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B968D520-F767-413F-A2F7-B05602FB43C8}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -1242,7 +1366,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{079BD42A-5F01-4EE5-A8A3-55C6AAB76233}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -1340,7 +1464,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -1483,7 +1607,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA767627-F2D8-4EE6-BF0E-F5992883EE39}">
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -1674,7 +1798,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955D9409-37EA-42B8-AF2F-C837F3F708A4}">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -1822,6 +1946,113 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A1AD7D0-4CB7-41B7-82F9-51A88A776C7D}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D891B7-431D-440C-BC1B-3F6A3C6A425D}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -1917,7 +2148,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9E5BDC-858C-40A4-AAAC-690BD12079BE}">
   <dimension ref="A1:H10"/>
   <sheetViews>
@@ -2127,7 +2358,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1069E3-F224-4C09-B11B-7C6B6BFBA34F}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -2223,7 +2454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7925DD38-417B-4DC2-8355-2344589CB906}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -2317,7 +2548,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C64A780-B325-4786-9305-F40760822895}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -2419,7 +2650,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50F1590B-8481-4D31-AE83-A1DF5D019A74}">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -2542,7 +2773,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3020E8-AD0F-478C-8862-BFFD2C6A7D00}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -2621,127 +2852,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A2C116D-A413-49EC-BAB2-3364BC68CB97}">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A2:A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/查询表.xlsx
+++ b/查询表.xlsx
@@ -8,30 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vhtmf\Documents\MATLAB\Transfer-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6FE9FD-F16E-4F5E-8412-1D2F2492EEAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4844EC-E7B7-476C-AD11-C87A8ADEADB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TransferLowPerformanceHeatmap" sheetId="26" r:id="rId1"/>
-    <sheet name="Fig2C" sheetId="22" r:id="rId2"/>
-    <sheet name="FinalRSPdHeat" sheetId="20" r:id="rId3"/>
-    <sheet name="统一PCA" sheetId="3" r:id="rId4"/>
-    <sheet name="Fig2B" sheetId="18" r:id="rId5"/>
-    <sheet name="声光Naive" sheetId="17" r:id="rId6"/>
-    <sheet name="TemplateHitMiss" sheetId="11" r:id="rId7"/>
-    <sheet name="HitMissPie" sheetId="14" r:id="rId8"/>
-    <sheet name="HitMissLinearFitting" sheetId="16" r:id="rId9"/>
-    <sheet name="Fig1J" sheetId="10" r:id="rId10"/>
-    <sheet name="Fig1G" sheetId="5" r:id="rId11"/>
-    <sheet name="Fig2A" sheetId="6" r:id="rId12"/>
-    <sheet name="声光HitMiss" sheetId="13" r:id="rId13"/>
-    <sheet name="声光迁移RSPd" sheetId="8" r:id="rId14"/>
-    <sheet name="OriginalKeepTraining" sheetId="24" r:id="rId15"/>
-    <sheet name="NaiveHitMiss" sheetId="9" r:id="rId16"/>
-    <sheet name="Fig1B" sheetId="1" r:id="rId17"/>
-    <sheet name="Fig1E" sheetId="4" r:id="rId18"/>
-    <sheet name="Fig4D" sheetId="2" r:id="rId19"/>
+    <sheet name="声光最终MOp" sheetId="32" r:id="rId1"/>
+    <sheet name="声光迁移命中错失" sheetId="31" r:id="rId2"/>
+    <sheet name="声光Naive命中错失" sheetId="29" r:id="rId3"/>
+    <sheet name="声光迁移MOp" sheetId="28" r:id="rId4"/>
+    <sheet name="TransferLowPerformanceHeatmap" sheetId="26" r:id="rId5"/>
+    <sheet name="Fig2C" sheetId="22" r:id="rId6"/>
+    <sheet name="FinalRSPdHeat" sheetId="20" r:id="rId7"/>
+    <sheet name="统一PCA" sheetId="3" r:id="rId8"/>
+    <sheet name="光声最终MOp" sheetId="18" r:id="rId9"/>
+    <sheet name="声光Naive" sheetId="17" r:id="rId10"/>
+    <sheet name="光声迁移命中错失" sheetId="11" r:id="rId11"/>
+    <sheet name="HitMissPie" sheetId="14" r:id="rId12"/>
+    <sheet name="HitMissLinearFitting" sheetId="16" r:id="rId13"/>
+    <sheet name="光声迁移MOp" sheetId="5" r:id="rId14"/>
+    <sheet name="Fig2A" sheetId="6" r:id="rId15"/>
+    <sheet name="声光迁移RSPd" sheetId="8" r:id="rId16"/>
+    <sheet name="OriginalKeepTraining" sheetId="24" r:id="rId17"/>
+    <sheet name="光声Naive命中错失" sheetId="9" r:id="rId18"/>
+    <sheet name="Fig1B" sheetId="1" r:id="rId19"/>
+    <sheet name="Fig1E" sheetId="4" r:id="rId20"/>
+    <sheet name="Fig4D" sheetId="2" r:id="rId21"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="55">
   <si>
     <t>GroupName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,10 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LightOnly</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AudioOnly</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -152,26 +150,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Naïve_light_only</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Naïve_light_water</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Naïve_light_water_hit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Learned_light_water</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Naïve_light_water_miss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Transfer_audio_water_hit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -196,22 +174,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Task_B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RSPd2/3,RSPd5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Transfer_light_water_hit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Transfer_light_water_miss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Transfer_hit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -269,6 +235,34 @@
   </si>
   <si>
     <t>Learned4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Naïve_hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Naïve_miss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FinalA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FinalB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Naive10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TrialIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -312,9 +306,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -596,11 +596,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A66BD7E-1002-4444-9036-E4027F529645}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{992C397D-6993-4D91-93A5-CDA0DF36215A}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -624,15 +624,15 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
@@ -641,59 +641,49 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -703,11 +693,411 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A2C116D-A413-49EC-BAB2-3364BC68CB97}">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7925DD38-417B-4DC2-8355-2344589CB906}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A2:A6"/>
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C64A780-B325-4786-9305-F40760822895}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="20.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50F1590B-8481-4D31-AE83-A1DF5D019A74}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.625" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3020E8-AD0F-478C-8862-BFFD2C6A7D00}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.625" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BB5AC8-8FCA-49B8-AF30-96F469FDC022}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -731,169 +1121,46 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BB5AC8-8FCA-49B8-AF30-96F469FDC022}">
-  <dimension ref="A1:E14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
@@ -905,7 +1172,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -970,7 +1237,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0FF2BA3-B618-4C5A-8B44-5AD472C293A6}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -999,12 +1266,12 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -1016,12 +1283,12 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>16</v>
@@ -1033,7 +1300,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1050,113 +1317,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DC8F313-9CDA-4DB5-9763-AA6005B84C2F}">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="A1:F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="30.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="20.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E741F2-60D1-4FC1-A219-2E32E5A5D7E0}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1180,12 +1346,12 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -1197,12 +1363,12 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>16</v>
@@ -1214,12 +1380,12 @@
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
@@ -1231,7 +1397,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1241,7 +1407,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B968D520-F767-413F-A2F7-B05602FB43C8}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -1271,15 +1437,15 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -1288,15 +1454,15 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
@@ -1305,15 +1471,15 @@
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
@@ -1322,12 +1488,12 @@
         <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>16</v>
@@ -1339,12 +1505,12 @@
         <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>17</v>
@@ -1356,7 +1522,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1366,12 +1532,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{079BD42A-5F01-4EE5-A8A3-55C6AAB76233}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1395,7 +1561,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>18</v>
@@ -1403,7 +1569,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -1415,7 +1581,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -1423,7 +1589,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -1435,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -1443,7 +1609,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>16</v>
@@ -1455,16 +1621,17 @@
         <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -1607,7 +1774,109 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC70947-C4ED-4871-A3F8-FFD0C48464E6}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="20.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA767627-F2D8-4EE6-BF0E-F5992883EE39}">
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -1637,7 +1906,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>18</v>
@@ -1645,7 +1914,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -1657,7 +1926,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1674,12 +1943,12 @@
         <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
@@ -1691,7 +1960,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -1699,7 +1968,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>10</v>
@@ -1711,7 +1980,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -1719,7 +1988,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>2</v>
@@ -1731,7 +2000,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1748,12 +2017,12 @@
         <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
@@ -1765,7 +2034,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -1773,7 +2042,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
@@ -1785,7 +2054,7 @@
         <v>6</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -1798,7 +2067,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955D9409-37EA-42B8-AF2F-C837F3F708A4}">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -1945,7 +2214,328 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BE589AC-5F70-4A52-BB9A-8ED381B02102}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="20.625" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D3F1E2-1B17-4976-9D78-7846660A4C1E}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="20.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="20.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A66BD7E-1002-4444-9036-E4027F529645}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A1AD7D0-4CB7-41B7-82F9-51A88A776C7D}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -1974,12 +2564,12 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -1991,12 +2581,12 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -2008,12 +2598,12 @@
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>16</v>
@@ -2025,12 +2615,12 @@
         <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>17</v>
@@ -2042,7 +2632,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2052,7 +2642,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D891B7-431D-440C-BC1B-3F6A3C6A425D}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -2081,12 +2671,12 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>16</v>
@@ -2098,12 +2688,12 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -2115,12 +2705,12 @@
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>17</v>
@@ -2132,7 +2722,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2148,12 +2738,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9E5BDC-858C-40A4-AAAC-690BD12079BE}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2161,9 +2751,7 @@
     <col min="1" max="1" width="30.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="20.625" style="1" customWidth="1"/>
-    <col min="6" max="8" width="9" style="1"/>
+    <col min="4" max="7" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -2180,15 +2768,12 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -2199,67 +2784,56 @@
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
@@ -2270,19 +2844,16 @@
       <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
+      <c r="E6" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
@@ -2290,30 +2861,30 @@
       <c r="D7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>24</v>
+      <c r="E7" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>24</v>
+      <c r="E8" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
@@ -2324,31 +2895,64 @@
       <c r="D9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
+      <c r="E9" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2358,105 +2962,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1069E3-F224-4C09-B11B-7C6B6BFBA34F}">
   <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7925DD38-417B-4DC2-8355-2344589CB906}">
-  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -2469,7 +2977,7 @@
     <col min="5" max="5" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2483,373 +2991,70 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C64A780-B325-4786-9305-F40760822895}">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="30.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="20.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50F1590B-8481-4D31-AE83-A1DF5D019A74}">
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="30.625" customWidth="1"/>
-    <col min="2" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3020E8-AD0F-478C-8862-BFFD2C6A7D00}">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="30.625" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/查询表.xlsx
+++ b/查询表.xlsx
@@ -8,34 +8,38 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vhtmf\Documents\MATLAB\Transfer-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4844EC-E7B7-476C-AD11-C87A8ADEADB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED627619-C4B5-48AD-B0D5-6C3934BF4825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="声光最终MOp" sheetId="32" r:id="rId1"/>
-    <sheet name="声光迁移命中错失" sheetId="31" r:id="rId2"/>
-    <sheet name="声光Naive命中错失" sheetId="29" r:id="rId3"/>
-    <sheet name="声光迁移MOp" sheetId="28" r:id="rId4"/>
-    <sheet name="TransferLowPerformanceHeatmap" sheetId="26" r:id="rId5"/>
-    <sheet name="Fig2C" sheetId="22" r:id="rId6"/>
-    <sheet name="FinalRSPdHeat" sheetId="20" r:id="rId7"/>
-    <sheet name="统一PCA" sheetId="3" r:id="rId8"/>
-    <sheet name="光声最终MOp" sheetId="18" r:id="rId9"/>
-    <sheet name="声光Naive" sheetId="17" r:id="rId10"/>
-    <sheet name="光声迁移命中错失" sheetId="11" r:id="rId11"/>
-    <sheet name="HitMissPie" sheetId="14" r:id="rId12"/>
-    <sheet name="HitMissLinearFitting" sheetId="16" r:id="rId13"/>
-    <sheet name="光声迁移MOp" sheetId="5" r:id="rId14"/>
-    <sheet name="Fig2A" sheetId="6" r:id="rId15"/>
-    <sheet name="声光迁移RSPd" sheetId="8" r:id="rId16"/>
-    <sheet name="OriginalKeepTraining" sheetId="24" r:id="rId17"/>
-    <sheet name="光声Naive命中错失" sheetId="9" r:id="rId18"/>
-    <sheet name="Fig1B" sheetId="1" r:id="rId19"/>
-    <sheet name="Fig1E" sheetId="4" r:id="rId20"/>
-    <sheet name="Fig4D" sheetId="2" r:id="rId21"/>
+    <sheet name="声光持续训练" sheetId="35" r:id="rId1"/>
+    <sheet name="迁移PC声光Top5" sheetId="34" r:id="rId2"/>
+    <sheet name="声光最终MOp" sheetId="32" r:id="rId3"/>
+    <sheet name="声光迁移命中错失" sheetId="31" r:id="rId4"/>
+    <sheet name="声光Naive命中错失" sheetId="29" r:id="rId5"/>
+    <sheet name="声光迁移MOp" sheetId="28" r:id="rId6"/>
+    <sheet name="TransferLowPerformanceHeatmap" sheetId="26" r:id="rId7"/>
+    <sheet name="迁移PC光声Top5" sheetId="33" r:id="rId8"/>
+    <sheet name="Fig2C" sheetId="22" r:id="rId9"/>
+    <sheet name="FinalRSPdHeat" sheetId="20" r:id="rId10"/>
+    <sheet name="统一PCA" sheetId="3" r:id="rId11"/>
+    <sheet name="光声最终MOp" sheetId="18" r:id="rId12"/>
+    <sheet name="声光Naive" sheetId="17" r:id="rId13"/>
+    <sheet name="光声迁移命中错失" sheetId="11" r:id="rId14"/>
+    <sheet name="HitMissPie" sheetId="14" r:id="rId15"/>
+    <sheet name="HitMissLinearFitting" sheetId="16" r:id="rId16"/>
+    <sheet name="光声迁移MOp" sheetId="5" r:id="rId17"/>
+    <sheet name="Fig2A" sheetId="6" r:id="rId18"/>
+    <sheet name="声光迁移RSPd" sheetId="8" r:id="rId19"/>
+    <sheet name="光声持续训练" sheetId="24" r:id="rId20"/>
+    <sheet name="光声Naive命中错失" sheetId="9" r:id="rId21"/>
+    <sheet name="Fig1B" sheetId="1" r:id="rId22"/>
+    <sheet name="Fig1E" sheetId="4" r:id="rId23"/>
+    <sheet name="Fig4D" sheetId="2" r:id="rId24"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="61">
   <si>
     <t>GroupName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -214,22 +218,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Learned_light_water_0h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Learned1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Learned_light_water_12h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Learned_light_water_36h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Learned2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -263,6 +255,42 @@
   </si>
   <si>
     <t>1:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Naïve_cue_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Naïve_cue_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Naive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LightOnly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learned_0h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learned_12h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learned_36h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learned_24h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learned3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -596,11 +624,153 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{992C397D-6993-4D91-93A5-CDA0DF36215A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4EDEF22-328F-4E86-8930-C1DD40456CE8}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="20.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="20.625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D891B7-431D-440C-BC1B-3F6A3C6A425D}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="A1:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -629,7 +799,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>16</v>
@@ -641,12 +811,12 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -658,12 +828,12 @@
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>17</v>
@@ -675,7 +845,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -684,6 +854,229 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9E5BDC-858C-40A4-AAAC-690BD12079BE}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
+    <col min="4" max="7" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -692,7 +1085,104 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1069E3-F224-4C09-B11B-7C6B6BFBA34F}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7925DD38-417B-4DC2-8355-2344589CB906}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -786,7 +1276,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C64A780-B325-4786-9305-F40760822895}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -888,7 +1378,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50F1590B-8481-4D31-AE83-A1DF5D019A74}">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -1011,7 +1501,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3020E8-AD0F-478C-8862-BFFD2C6A7D00}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -1092,7 +1582,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BB5AC8-8FCA-49B8-AF30-96F469FDC022}">
   <dimension ref="A1:E14"/>
   <sheetViews>
@@ -1237,7 +1727,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0FF2BA3-B618-4C5A-8B44-5AD472C293A6}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -1317,7 +1807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E741F2-60D1-4FC1-A219-2E32E5A5D7E0}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -1407,12 +1897,137 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B968D520-F767-413F-A2F7-B05602FB43C8}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239CDB58-A43B-4B72-82AC-57B1E297A423}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A2" sqref="A2:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="20.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B968D520-F767-413F-A2F7-B05602FB43C8}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1442,10 +2057,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -1459,10 +2074,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
@@ -1476,10 +2091,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
@@ -1488,18 +2103,18 @@
         <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>4</v>
@@ -1510,18 +2125,35 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1532,7 +2164,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{079BD42A-5F01-4EE5-A8A3-55C6AAB76233}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -1569,7 +2201,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -1589,7 +2221,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -1631,7 +2263,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -1774,7 +2406,442 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA767627-F2D8-4EE6-BF0E-F5992883EE39}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="20.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955D9409-37EA-42B8-AF2F-C837F3F708A4}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="20.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{992C397D-6993-4D91-93A5-CDA0DF36215A}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC70947-C4ED-4871-A3F8-FFD0C48464E6}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -1876,345 +2943,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA767627-F2D8-4EE6-BF0E-F5992883EE39}">
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="20.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.625" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955D9409-37EA-42B8-AF2F-C837F3F708A4}">
-  <dimension ref="A1:D9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="20.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BE589AC-5F70-4A52-BB9A-8ED381B02102}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -2251,7 +2980,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -2271,7 +3000,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -2313,7 +3042,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D3F1E2-1B17-4976-9D78-7846660A4C1E}">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -2347,12 +3076,12 @@
         <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -2367,7 +3096,7 @@
         <v>23</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2428,12 +3157,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A66BD7E-1002-4444-9036-E4027F529645}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E5" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2535,7 +3264,147 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCC77D8-0723-4772-B600-D0CA5BDBB940}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="A7:E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="20.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E11" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A1AD7D0-4CB7-41B7-82F9-51A88A776C7D}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -2640,421 +3509,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D891B7-431D-440C-BC1B-3F6A3C6A425D}">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="A1:E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9E5BDC-858C-40A4-AAAC-690BD12079BE}">
-  <dimension ref="A1:G13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="30.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
-    <col min="4" max="7" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1069E3-F224-4C09-B11B-7C6B6BFBA34F}">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/查询表.xlsx
+++ b/查询表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vhtmf\Documents\MATLAB\Transfer-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED627619-C4B5-48AD-B0D5-6C3934BF4825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5EFB34-CD74-4B95-B8A7-543761C4B97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="10" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="声光持续训练" sheetId="35" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="61">
   <si>
     <t>GroupName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -625,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4EDEF22-328F-4E86-8930-C1DD40456CE8}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -721,40 +721,6 @@
         <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -866,7 +832,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1586,8 +1552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BB5AC8-8FCA-49B8-AF30-96F469FDC022}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2027,7 +1993,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2128,7 +2094,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>

--- a/查询表.xlsx
+++ b/查询表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vhtmf\Documents\MATLAB\Transfer-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5EFB34-CD74-4B95-B8A7-543761C4B97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45583B16-9040-4FCF-9601-8CBAC027BF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="10" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="声光持续训练" sheetId="35" r:id="rId1"/>
@@ -831,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9E5BDC-858C-40A4-AAAC-690BD12079BE}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1552,8 +1552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BB5AC8-8FCA-49B8-AF30-96F469FDC022}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/查询表.xlsx
+++ b/查询表.xlsx
@@ -8,38 +8,39 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vhtmf\Documents\MATLAB\Transfer-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45583B16-9040-4FCF-9601-8CBAC027BF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75A9EB2-2ACA-4504-AEC4-6A3143971E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="声光持续训练" sheetId="35" r:id="rId1"/>
-    <sheet name="迁移PC声光Top5" sheetId="34" r:id="rId2"/>
-    <sheet name="声光最终MOp" sheetId="32" r:id="rId3"/>
-    <sheet name="声光迁移命中错失" sheetId="31" r:id="rId4"/>
-    <sheet name="声光Naive命中错失" sheetId="29" r:id="rId5"/>
-    <sheet name="声光迁移MOp" sheetId="28" r:id="rId6"/>
-    <sheet name="TransferLowPerformanceHeatmap" sheetId="26" r:id="rId7"/>
-    <sheet name="迁移PC光声Top5" sheetId="33" r:id="rId8"/>
-    <sheet name="Fig2C" sheetId="22" r:id="rId9"/>
-    <sheet name="FinalRSPdHeat" sheetId="20" r:id="rId10"/>
-    <sheet name="统一PCA" sheetId="3" r:id="rId11"/>
-    <sheet name="光声最终MOp" sheetId="18" r:id="rId12"/>
-    <sheet name="声光Naive" sheetId="17" r:id="rId13"/>
-    <sheet name="光声迁移命中错失" sheetId="11" r:id="rId14"/>
-    <sheet name="HitMissPie" sheetId="14" r:id="rId15"/>
-    <sheet name="HitMissLinearFitting" sheetId="16" r:id="rId16"/>
-    <sheet name="光声迁移MOp" sheetId="5" r:id="rId17"/>
-    <sheet name="Fig2A" sheetId="6" r:id="rId18"/>
-    <sheet name="声光迁移RSPd" sheetId="8" r:id="rId19"/>
-    <sheet name="光声持续训练" sheetId="24" r:id="rId20"/>
-    <sheet name="光声Naive命中错失" sheetId="9" r:id="rId21"/>
-    <sheet name="Fig1B" sheetId="1" r:id="rId22"/>
-    <sheet name="Fig1E" sheetId="4" r:id="rId23"/>
-    <sheet name="Fig4D" sheetId="2" r:id="rId24"/>
+    <sheet name="光水NLT" sheetId="38" r:id="rId1"/>
+    <sheet name="声光持续训练" sheetId="35" r:id="rId2"/>
+    <sheet name="声水NLT" sheetId="36" r:id="rId3"/>
+    <sheet name="迁移PC声光Top5" sheetId="34" r:id="rId4"/>
+    <sheet name="声光最终MOp" sheetId="32" r:id="rId5"/>
+    <sheet name="声光迁移命中错失" sheetId="31" r:id="rId6"/>
+    <sheet name="声光Naive命中错失" sheetId="29" r:id="rId7"/>
+    <sheet name="声光迁移MOp" sheetId="28" r:id="rId8"/>
+    <sheet name="TransferLowPerformanceHeatmap" sheetId="26" r:id="rId9"/>
+    <sheet name="迁移PC光声Top5" sheetId="33" r:id="rId10"/>
+    <sheet name="Fig2C" sheetId="22" r:id="rId11"/>
+    <sheet name="FinalRSPdHeat" sheetId="20" r:id="rId12"/>
+    <sheet name="统一PCA" sheetId="3" r:id="rId13"/>
+    <sheet name="光声最终MOp" sheetId="18" r:id="rId14"/>
+    <sheet name="声光Naive" sheetId="17" r:id="rId15"/>
+    <sheet name="光声迁移命中错失" sheetId="11" r:id="rId16"/>
+    <sheet name="HitMissPie" sheetId="14" r:id="rId17"/>
+    <sheet name="HitMissLinearFitting" sheetId="16" r:id="rId18"/>
+    <sheet name="光声迁移MOp" sheetId="5" r:id="rId19"/>
+    <sheet name="Fig2A" sheetId="6" r:id="rId20"/>
+    <sheet name="声光迁移RSPd" sheetId="8" r:id="rId21"/>
+    <sheet name="光声持续训练" sheetId="24" r:id="rId22"/>
+    <sheet name="光声Naive命中错失" sheetId="9" r:id="rId23"/>
+    <sheet name="Fig1B" sheetId="1" r:id="rId24"/>
+    <sheet name="Fig1E" sheetId="4" r:id="rId25"/>
+    <sheet name="Fig4D" sheetId="2" r:id="rId26"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="61">
   <si>
     <t>GroupName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -624,22 +625,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4EDEF22-328F-4E86-8930-C1DD40456CE8}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D08470-62B6-49BB-8B5A-E172B6D3E072}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:E7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="20.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="20.625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -655,50 +655,53 @@
       <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
@@ -706,23 +709,7 @@
       <c r="E4" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="F4" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -732,6 +719,253 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCC77D8-0723-4772-B600-D0CA5BDBB940}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="A7:E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="20.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E11" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A1AD7D0-4CB7-41B7-82F9-51A88A776C7D}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D891B7-431D-440C-BC1B-3F6A3C6A425D}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -827,12 +1061,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9E5BDC-858C-40A4-AAAC-690BD12079BE}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1051,7 +1285,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1069E3-F224-4C09-B11B-7C6B6BFBA34F}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -1148,7 +1382,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7925DD38-417B-4DC2-8355-2344589CB906}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -1242,7 +1476,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C64A780-B325-4786-9305-F40760822895}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -1344,7 +1578,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50F1590B-8481-4D31-AE83-A1DF5D019A74}">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -1467,7 +1701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3020E8-AD0F-478C-8862-BFFD2C6A7D00}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -1548,7 +1782,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BB5AC8-8FCA-49B8-AF30-96F469FDC022}">
   <dimension ref="A1:E14"/>
   <sheetViews>
@@ -1693,7 +1927,149 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4EDEF22-328F-4E86-8930-C1DD40456CE8}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="20.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="20.625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0FF2BA3-B618-4C5A-8B44-5AD472C293A6}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -1773,7 +2149,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E741F2-60D1-4FC1-A219-2E32E5A5D7E0}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -1863,7 +2239,823 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B968D520-F767-413F-A2F7-B05602FB43C8}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="A6:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="20.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="20.625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{079BD42A-5F01-4EE5-A8A3-55C6AAB76233}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="20.625" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="20.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA767627-F2D8-4EE6-BF0E-F5992883EE39}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="20.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955D9409-37EA-42B8-AF2F-C837F3F708A4}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="20.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3139FCB1-A8A2-47FE-8D57-A16129805C91}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239CDB58-A43B-4B72-82AC-57B1E297A423}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -1988,729 +3180,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B968D520-F767-413F-A2F7-B05602FB43C8}">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="20.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="20.625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{079BD42A-5F01-4EE5-A8A3-55C6AAB76233}">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="3" width="20.625" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="20.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA767627-F2D8-4EE6-BF0E-F5992883EE39}">
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="20.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.625" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955D9409-37EA-42B8-AF2F-C837F3F708A4}">
-  <dimension ref="A1:D9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="20.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{992C397D-6993-4D91-93A5-CDA0DF36215A}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -2807,7 +3277,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC70947-C4ED-4871-A3F8-FFD0C48464E6}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -2909,7 +3379,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BE589AC-5F70-4A52-BB9A-8ED381B02102}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -3008,12 +3478,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D3F1E2-1B17-4976-9D78-7846660A4C1E}">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F5" sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3123,7 +3593,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A66BD7E-1002-4444-9036-E4027F529645}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -3228,251 +3698,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCC77D8-0723-4772-B600-D0CA5BDBB940}">
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="A7:E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="20.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E11" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A1AD7D0-4CB7-41B7-82F9-51A88A776C7D}">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/查询表.xlsx
+++ b/查询表.xlsx
@@ -8,38 +8,43 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vhtmf\Documents\MATLAB\Transfer-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75A9EB2-2ACA-4504-AEC4-6A3143971E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7746AA8C-C820-4387-9C6D-677AD6BF070E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="15" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="光水NLT" sheetId="38" r:id="rId1"/>
-    <sheet name="声光持续训练" sheetId="35" r:id="rId2"/>
-    <sheet name="声水NLT" sheetId="36" r:id="rId3"/>
-    <sheet name="迁移PC声光Top5" sheetId="34" r:id="rId4"/>
-    <sheet name="声光最终MOp" sheetId="32" r:id="rId5"/>
-    <sheet name="声光迁移命中错失" sheetId="31" r:id="rId6"/>
-    <sheet name="声光Naive命中错失" sheetId="29" r:id="rId7"/>
-    <sheet name="声光迁移MOp" sheetId="28" r:id="rId8"/>
-    <sheet name="TransferLowPerformanceHeatmap" sheetId="26" r:id="rId9"/>
-    <sheet name="迁移PC光声Top5" sheetId="33" r:id="rId10"/>
-    <sheet name="Fig2C" sheetId="22" r:id="rId11"/>
-    <sheet name="FinalRSPdHeat" sheetId="20" r:id="rId12"/>
-    <sheet name="统一PCA" sheetId="3" r:id="rId13"/>
-    <sheet name="光声最终MOp" sheetId="18" r:id="rId14"/>
-    <sheet name="声光Naive" sheetId="17" r:id="rId15"/>
-    <sheet name="光声迁移命中错失" sheetId="11" r:id="rId16"/>
-    <sheet name="HitMissPie" sheetId="14" r:id="rId17"/>
-    <sheet name="HitMissLinearFitting" sheetId="16" r:id="rId18"/>
-    <sheet name="光声迁移MOp" sheetId="5" r:id="rId19"/>
-    <sheet name="Fig2A" sheetId="6" r:id="rId20"/>
-    <sheet name="声光迁移RSPd" sheetId="8" r:id="rId21"/>
-    <sheet name="光声持续训练" sheetId="24" r:id="rId22"/>
-    <sheet name="光声Naive命中错失" sheetId="9" r:id="rId23"/>
-    <sheet name="Fig1B" sheetId="1" r:id="rId24"/>
-    <sheet name="Fig1E" sheetId="4" r:id="rId25"/>
-    <sheet name="Fig4D" sheetId="2" r:id="rId26"/>
+    <sheet name="声光PCA" sheetId="39" r:id="rId1"/>
+    <sheet name="光水NLT" sheetId="38" r:id="rId2"/>
+    <sheet name="声光持续训练" sheetId="35" r:id="rId3"/>
+    <sheet name="声水NLT" sheetId="36" r:id="rId4"/>
+    <sheet name="迁移PC声光Top5" sheetId="34" r:id="rId5"/>
+    <sheet name="声光最终MOp" sheetId="32" r:id="rId6"/>
+    <sheet name="声光迁移命中错失" sheetId="31" r:id="rId7"/>
+    <sheet name="声光Naive命中错失" sheetId="29" r:id="rId8"/>
+    <sheet name="声光迁移MOp" sheetId="28" r:id="rId9"/>
+    <sheet name="TransferLowPerformanceHeatmap" sheetId="26" r:id="rId10"/>
+    <sheet name="迁移PC光声Top5" sheetId="33" r:id="rId11"/>
+    <sheet name="Fig2C" sheetId="22" r:id="rId12"/>
+    <sheet name="FinalRSPdHeat" sheetId="20" r:id="rId13"/>
+    <sheet name="光声PCA" sheetId="3" r:id="rId14"/>
+    <sheet name="光声最终MOp" sheetId="18" r:id="rId15"/>
+    <sheet name="声光Naive" sheetId="17" r:id="rId16"/>
+    <sheet name="光声迁移命中错失" sheetId="11" r:id="rId17"/>
+    <sheet name="HitMissPie" sheetId="14" r:id="rId18"/>
+    <sheet name="HitMissLinearFitting" sheetId="16" r:id="rId19"/>
+    <sheet name="光声迁移MOp" sheetId="5" r:id="rId20"/>
+    <sheet name="Fig2A" sheetId="6" r:id="rId21"/>
+    <sheet name="声光迁移RSPd" sheetId="8" r:id="rId22"/>
+    <sheet name="光声持续训练" sheetId="24" r:id="rId23"/>
+    <sheet name="光声Naive命中错失" sheetId="9" r:id="rId24"/>
+    <sheet name="Fig1B" sheetId="1" r:id="rId25"/>
+    <sheet name="Fig1E" sheetId="4" r:id="rId26"/>
+    <sheet name="Fig4D" sheetId="2" r:id="rId27"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">光声PCA!$A$1:$E$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">声光PCA!$A$1:$E$6</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -50,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="60">
   <si>
     <t>GroupName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -236,10 +241,6 @@
   </si>
   <si>
     <t>Naïve_miss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FinalA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -625,11 +626,130 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D08470-62B6-49BB-8B5A-E172B6D3E072}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94655E1C-A0CC-4773-82AA-C161D537F8AD}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
+    <col min="4" max="7" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E6" xr:uid="{94655E1C-A0CC-4773-82AA-C161D537F8AD}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A66BD7E-1002-4444-9036-E4027F529645}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -639,7 +759,7 @@
     <col min="5" max="5" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -655,53 +775,50 @@
       <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
@@ -709,7 +826,23 @@
       <c r="E4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -718,7 +851,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCC77D8-0723-4772-B600-D0CA5BDBB940}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -753,13 +886,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
@@ -770,7 +903,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -787,7 +920,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -858,7 +991,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A1AD7D0-4CB7-41B7-82F9-51A88A776C7D}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -965,7 +1098,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D891B7-431D-440C-BC1B-3F6A3C6A425D}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -1061,12 +1194,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9E5BDC-858C-40A4-AAAC-690BD12079BE}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1111,55 +1244,59 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
@@ -1167,125 +1304,16 @@
       <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E6" xr:uid="{DD9E5BDC-858C-40A4-AAAC-690BD12079BE}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1069E3-F224-4C09-B11B-7C6B6BFBA34F}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -1382,7 +1410,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7925DD38-417B-4DC2-8355-2344589CB906}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -1476,7 +1504,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C64A780-B325-4786-9305-F40760822895}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -1578,7 +1606,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50F1590B-8481-4D31-AE83-A1DF5D019A74}">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -1701,7 +1729,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3020E8-AD0F-478C-8862-BFFD2C6A7D00}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -1782,7 +1810,101 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D08470-62B6-49BB-8B5A-E172B6D3E072}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BB5AC8-8FCA-49B8-AF30-96F469FDC022}">
   <dimension ref="A1:E14"/>
   <sheetViews>
@@ -1927,7 +2049,899 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0FF2BA3-B618-4C5A-8B44-5AD472C293A6}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E741F2-60D1-4FC1-A219-2E32E5A5D7E0}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B968D520-F767-413F-A2F7-B05602FB43C8}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="A6:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="20.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="20.625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{079BD42A-5F01-4EE5-A8A3-55C6AAB76233}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="20.625" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="20.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA767627-F2D8-4EE6-BF0E-F5992883EE39}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="20.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955D9409-37EA-42B8-AF2F-C837F3F708A4}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="20.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4EDEF22-328F-4E86-8930-C1DD40456CE8}">
   <dimension ref="A1:E7"/>
   <sheetViews>
@@ -1962,7 +2976,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>42</v>
@@ -1979,7 +2993,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>43</v>
@@ -1996,10 +3010,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -2013,7 +3027,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>44</v>
@@ -2069,903 +3083,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0FF2BA3-B618-4C5A-8B44-5AD472C293A6}">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E741F2-60D1-4FC1-A219-2E32E5A5D7E0}">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B968D520-F767-413F-A2F7-B05602FB43C8}">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="A6:E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="20.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="20.625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{079BD42A-5F01-4EE5-A8A3-55C6AAB76233}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3139FCB1-A8A2-47FE-8D57-A16129805C91}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="3" width="20.625" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="20.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA767627-F2D8-4EE6-BF0E-F5992883EE39}">
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="20.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.625" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955D9409-37EA-42B8-AF2F-C837F3F708A4}">
-  <dimension ref="A1:D9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="20.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3139FCB1-A8A2-47FE-8D57-A16129805C91}">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -3055,7 +3177,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239CDB58-A43B-4B72-82AC-57B1E297A423}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -3090,7 +3212,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -3107,13 +3229,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
@@ -3124,7 +3246,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -3180,7 +3302,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{992C397D-6993-4D91-93A5-CDA0DF36215A}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -3277,7 +3399,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC70947-C4ED-4871-A3F8-FFD0C48464E6}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -3379,7 +3501,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BE589AC-5F70-4A52-BB9A-8ED381B02102}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -3478,7 +3600,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D3F1E2-1B17-4976-9D78-7846660A4C1E}">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -3512,12 +3634,12 @@
         <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -3532,7 +3654,7 @@
         <v>23</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -3581,113 +3703,6 @@
       </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A66BD7E-1002-4444-9036-E4027F529645}">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E2:E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>23</v>

--- a/查询表.xlsx
+++ b/查询表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vhtmf\Documents\MATLAB\Transfer-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7746AA8C-C820-4387-9C6D-677AD6BF070E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B58B4D-B2D0-4603-8C14-70B984B406CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="15" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="16" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="声光PCA" sheetId="39" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="61">
   <si>
     <t>GroupName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -293,6 +293,10 @@
   </si>
   <si>
     <t>Learned3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learned,Learned4,Transfer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -630,13 +634,12 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="30.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
     <col min="4" max="7" width="9" style="1"/>
   </cols>
@@ -678,7 +681,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
@@ -1199,13 +1202,12 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="30.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
     <col min="4" max="7" width="9" style="1"/>
   </cols>
@@ -1247,7 +1249,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
@@ -2134,12 +2136,13 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="30.625" customWidth="1"/>
     <col min="3" max="3" width="10.625" customWidth="1"/>
     <col min="5" max="5" width="20.625" customWidth="1"/>
   </cols>
@@ -2183,7 +2186,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>

--- a/查询表.xlsx
+++ b/查询表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vhtmf\Documents\MATLAB\Transfer-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B58B4D-B2D0-4603-8C14-70B984B406CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE9CF18-E077-49A9-9032-EF0ADCA208B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="16" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="10" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="声光PCA" sheetId="39" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="61">
   <si>
     <t>GroupName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -634,14 +634,16 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="F2" sqref="F2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="30.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
-    <col min="4" max="7" width="9" style="1"/>
+    <col min="4" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="20.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -660,6 +662,9 @@
       <c r="E1" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -674,7 +679,9 @@
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -689,7 +696,9 @@
       <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -707,6 +716,9 @@
       <c r="E4" s="1">
         <v>1</v>
       </c>
+      <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -724,6 +736,9 @@
       <c r="E5" s="1">
         <v>0</v>
       </c>
+      <c r="F5" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -737,6 +752,9 @@
       </c>
       <c r="D6" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1319,13 +1337,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1069E3-F224-4C09-B11B-7C6B6BFBA34F}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="30.625" customWidth="1"/>
     <col min="3" max="3" width="10.625" customWidth="1"/>
     <col min="5" max="5" width="20.625" customWidth="1"/>
   </cols>
@@ -1352,7 +1371,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -2135,7 +2154,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E741F2-60D1-4FC1-A219-2E32E5A5D7E0}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
@@ -3310,12 +3329,13 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="30.625" customWidth="1"/>
     <col min="3" max="3" width="10.625" customWidth="1"/>
     <col min="5" max="5" width="20.625" customWidth="1"/>
   </cols>
@@ -3342,7 +3362,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>

--- a/查询表.xlsx
+++ b/查询表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vhtmf\Documents\MATLAB\Transfer-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE9CF18-E077-49A9-9032-EF0ADCA208B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F2D8EE-A972-40EA-8C48-A05A85A9590C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="10" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="17" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="声光PCA" sheetId="39" r:id="rId1"/>
@@ -1337,7 +1337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1069E3-F224-4C09-B11B-7C6B6BFBA34F}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
@@ -2387,13 +2387,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{079BD42A-5F01-4EE5-A8A3-55C6AAB76233}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="30.625" customWidth="1"/>
+    <col min="3" max="3" width="20.625" customWidth="1"/>
     <col min="5" max="5" width="20.625" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
   </cols>
@@ -2463,7 +2465,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
@@ -3529,12 +3531,14 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="30.625" customWidth="1"/>
+    <col min="3" max="3" width="20.625" customWidth="1"/>
     <col min="5" max="5" width="20.625" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
   </cols>
@@ -3604,7 +3608,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>

--- a/查询表.xlsx
+++ b/查询表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vhtmf\Documents\MATLAB\Transfer-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F2D8EE-A972-40EA-8C48-A05A85A9590C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9577A8-D113-4BE7-8656-7928B4E3D68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="17" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="20" activeTab="32" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="声光PCA" sheetId="39" r:id="rId1"/>
@@ -38,8 +38,14 @@
     <sheet name="光声持续训练" sheetId="24" r:id="rId23"/>
     <sheet name="光声Naive命中错失" sheetId="9" r:id="rId24"/>
     <sheet name="Fig1B" sheetId="1" r:id="rId25"/>
-    <sheet name="Fig1E" sheetId="4" r:id="rId26"/>
-    <sheet name="Fig4D" sheetId="2" r:id="rId27"/>
+    <sheet name="Fig4D" sheetId="2" r:id="rId26"/>
+    <sheet name="Fig1E" sheetId="4" r:id="rId27"/>
+    <sheet name="Fig1F" sheetId="41" r:id="rId28"/>
+    <sheet name="Fig1G" sheetId="40" r:id="rId29"/>
+    <sheet name="Fig1H" sheetId="42" r:id="rId30"/>
+    <sheet name="Fig1J" sheetId="43" r:id="rId31"/>
+    <sheet name="Fig1K" sheetId="44" r:id="rId32"/>
+    <sheet name="Fig1L" sheetId="45" r:id="rId33"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">光声PCA!$A$1:$E$6</definedName>
@@ -55,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="64">
   <si>
     <t>GroupName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -297,6 +303,18 @@
   </si>
   <si>
     <t>Learned,Learned4,Transfer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Naïve_cue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learned_hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learned_miss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2387,7 +2405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{079BD42A-5F01-4EE5-A8A3-55C6AAB76233}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
@@ -2628,197 +2646,6 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA767627-F2D8-4EE6-BF0E-F5992883EE39}">
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="20.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.625" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955D9409-37EA-42B8-AF2F-C837F3F708A4}">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -2956,6 +2783,410 @@
       </c>
       <c r="D9" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA767627-F2D8-4EE6-BF0E-F5992883EE39}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="20.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{673DCBAC-74C8-46D9-9E51-3D79E0C9E0AD}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="20.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{394906AA-599F-4A70-9C89-31200372A3CB}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="A1:E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="30.625" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -3104,6 +3335,502 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8056A83F-BC10-47F4-9E5B-271761E7A9D3}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="30.625" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD36152B-31F8-401F-9C33-F4F4D7D76FD4}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.625" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2493667C-977F-4228-9C57-43128D0072CD}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="30.625" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFFD7975-4DBD-40DC-99B8-46C75232DDD3}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="30.625" customWidth="1"/>
+    <col min="4" max="4" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/查询表.xlsx
+++ b/查询表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vhtmf\Documents\MATLAB\Transfer-learning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\张天夫\Documents\MATLAB\Transfer-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9577A8-D113-4BE7-8656-7928B4E3D68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4978A18D-30E4-40C8-AE3D-B87737D656AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="20" activeTab="32" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="20" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="声光PCA" sheetId="39" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="75">
   <si>
     <t>GroupName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -316,13 +316,57 @@
   <si>
     <t>Learned_miss</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声光无穿插</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phase</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stimulus</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paradigm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Naïve</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AudioWater</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learned</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learned,Transfer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transfer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LightWater</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,6 +380,18 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -358,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -368,6 +424,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3109,85 +3171,77 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{394906AA-599F-4A70-9C89-31200372A3CB}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="A1:E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.625" customWidth="1"/>
     <col min="2" max="2" width="30.625" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="3" max="4" width="10.625" customWidth="1"/>
     <col min="5" max="5" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="A1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="A2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="A3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="A4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3723,7 +3777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFFD7975-4DBD-40DC-99B8-46C75232DDD3}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>

--- a/查询表.xlsx
+++ b/查询表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\张天夫\Documents\MATLAB\Transfer-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4978A18D-30E4-40C8-AE3D-B87737D656AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC084C1-FA72-4205-9675-6BF040F5FD64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="20" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="20" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="声光PCA" sheetId="39" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <sheet name="Fig4D" sheetId="2" r:id="rId26"/>
     <sheet name="Fig1E" sheetId="4" r:id="rId27"/>
     <sheet name="Fig1F" sheetId="41" r:id="rId28"/>
-    <sheet name="Fig1G" sheetId="40" r:id="rId29"/>
+    <sheet name="Fig1GI" sheetId="40" r:id="rId29"/>
     <sheet name="Fig1H" sheetId="42" r:id="rId30"/>
     <sheet name="Fig1J" sheetId="43" r:id="rId31"/>
     <sheet name="Fig1K" sheetId="44" r:id="rId32"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="80">
   <si>
     <t>GroupName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -360,6 +360,26 @@
   <si>
     <t>LightWater</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>naïve_AudioOnly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>naïve_LightOnly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>naïve_AudioWater</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>learned_AudioWater</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transfer_LightWater</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3171,7 +3191,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{394906AA-599F-4A70-9C89-31200372A3CB}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -3504,21 +3524,20 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD36152B-31F8-401F-9C33-F4F4D7D76FD4}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.625" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="3" max="4" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3531,50 +3550,41 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -3583,33 +3593,27 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
@@ -3618,10 +3622,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/查询表.xlsx
+++ b/查询表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\张天夫\Documents\MATLAB\Transfer-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC084C1-FA72-4205-9675-6BF040F5FD64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AE1F53-18C7-4F31-86C1-445989EA9F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="20" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="20" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="声光PCA" sheetId="39" r:id="rId1"/>
@@ -3526,7 +3526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD36152B-31F8-401F-9C33-F4F4D7D76FD4}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -3636,15 +3636,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2493667C-977F-4228-9C57-43128D0072CD}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.625" customWidth="1"/>
     <col min="2" max="2" width="30.625" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="3" max="4" width="10.625" customWidth="1"/>
     <col min="5" max="5" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3670,13 +3670,13 @@
         <v>62</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -3687,13 +3687,13 @@
         <v>63</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -3710,7 +3710,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -3727,7 +3727,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
